--- a/fermentation_insights/TRY_results/spearman_HP_cornstover.xlsx
+++ b/fermentation_insights/TRY_results/spearman_HP_cornstover.xlsx
@@ -625,109 +625,109 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4760659042636171</v>
+        <v>-0.3475954063816255</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4867194508778035</v>
+        <v>-0.3610913323653295</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9298526154104616</v>
+        <v>0.6410990123960496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2951543326173305</v>
+        <v>0.1805350581402326</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01905982023928096</v>
+        <v>0.006229848919395677</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.196247536990148</v>
+        <v>-0.2250753963015852</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008894243576974308</v>
+        <v>0.02697015588062352</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4128979395917584</v>
+        <v>-0.4385348421393686</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1291450925803703</v>
+        <v>0.1687535070140281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01813975255901024</v>
+        <v>0.0218563114252457</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.01712234048936196</v>
+        <v>5.356821427285709e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.08687909951639806</v>
+        <v>-0.07790104760419042</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008296449185796743</v>
+        <v>-0.003926031704126817</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.03210224040896163</v>
+        <v>-0.04108029232116928</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0789248916995668</v>
+        <v>-0.05146551786207145</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06023352093408374</v>
+        <v>0.0536185184740739</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.04806796827187309</v>
+        <v>-0.01882442729770919</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.02601341605366421</v>
+        <v>-0.02999848799395198</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1620326161304645</v>
+        <v>0.2021136404545618</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.02132245328981316</v>
+        <v>-0.02054715418861676</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06570919083676335</v>
+        <v>0.05227048108192433</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.06557325429301718</v>
+        <v>-0.03909817239268957</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.06957080628322514</v>
+        <v>-0.0806942747770991</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.03572222288889156</v>
+        <v>-0.04372529490117961</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.0723191052764211</v>
+        <v>-0.07290163560654242</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.0477689270757083</v>
+        <v>-0.03013663254653019</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1032781731126925</v>
+        <v>0.08782057528230112</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3013429973719895</v>
+        <v>0.1926756507026028</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.08594232776931107</v>
+        <v>0.1069668918675675</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.1123168012672051</v>
+        <v>-0.115059628238513</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.063999903999616</v>
+        <v>-0.1306914667658671</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.01817133668534674</v>
+        <v>-0.01157822231288925</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.01078429913719655</v>
+        <v>-0.02099931599726399</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.633438181752727</v>
+        <v>0.5568619394477577</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.4392991011964048</v>
+        <v>0.4853875415501662</v>
       </c>
     </row>
     <row r="3">
@@ -737,112 +737,112 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4760659042636171</v>
+        <v>-0.3475954063816255</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4334185016740067</v>
+        <v>0.3487166908667635</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4713465253861016</v>
+        <v>0.02553581414325657</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3342012408049632</v>
+        <v>-0.2948527954111816</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01033799335197341</v>
+        <v>0.01640329761319045</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2117105108420434</v>
+        <v>-0.238628346513386</v>
       </c>
       <c r="I3" t="n">
-        <v>0.410688394753579</v>
+        <v>0.4403663374653499</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05475861903447614</v>
+        <v>0.05312152448609794</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.03072137088548354</v>
+        <v>-0.04860201840807363</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.02390102360409442</v>
+        <v>-0.01835556142224569</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.04015542462169849</v>
+        <v>-0.05225080100320401</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08867689870759483</v>
+        <v>0.08445268981075925</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.08479675518702075</v>
+        <v>-0.0838253273013092</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02867099468397874</v>
+        <v>0.03505358021432086</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1254587738350953</v>
+        <v>0.1181475765903064</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.03199020796083184</v>
+        <v>-0.01468229872919492</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.2752075648302593</v>
+        <v>-0.2976750147000588</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.0342251929007716</v>
+        <v>-0.03318973275893104</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4632159648638595</v>
+        <v>0.5012014928059713</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06578819915279661</v>
+        <v>0.07263398653594615</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.06737854151416606</v>
+        <v>-0.05950103800415202</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.01915860463441854</v>
+        <v>-0.03357191028764115</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.05937729350917403</v>
+        <v>-0.06172229488917955</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.04251290605162421</v>
+        <v>0.04418676874707499</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02759214236856947</v>
+        <v>0.02402822411289645</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02705665222660891</v>
+        <v>0.01291944367777471</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0138373993495974</v>
+        <v>0.03095292381169525</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.3407980991923968</v>
+        <v>-0.2916204624818499</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.01039693758775035</v>
+        <v>-0.00299252397009588</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.05274270697082788</v>
+        <v>0.0535249180996724</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.02040382561530246</v>
+        <v>-0.01598233592934372</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.01395720782883132</v>
+        <v>0.01317931671726687</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02110050040200161</v>
+        <v>0.02548234192936772</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.4896403585614342</v>
+        <v>-0.420935667742671</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.2931129804519218</v>
+        <v>-0.3020755763023052</v>
       </c>
     </row>
     <row r="4">
@@ -852,112 +852,112 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4867194508778035</v>
+        <v>-0.3610913323653295</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4334185016740067</v>
+        <v>0.3487166908667635</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5538272713090853</v>
+        <v>-0.3478680474721899</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00490129960519842</v>
+        <v>0.0572563570254281</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0142248568994276</v>
+        <v>-0.01014061656246625</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1969063876255505</v>
+        <v>-0.2275808143232573</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01818487273949096</v>
+        <v>0.02059957039828159</v>
       </c>
       <c r="J4" t="n">
-        <v>0.636064080256321</v>
+        <v>0.6418239112956452</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02309193236772947</v>
+        <v>0.02253935415741663</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1873024132096529</v>
+        <v>0.2069156756627027</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02486793947175789</v>
+        <v>0.02646663386653546</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.01159713438853755</v>
+        <v>-0.01931047724190897</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2236425905703623</v>
+        <v>0.2677215508862035</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02737815751263005</v>
+        <v>0.03383600734402938</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05117175668702675</v>
+        <v>0.03317744470977884</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.0210562442249769</v>
+        <v>-0.01128014112056448</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05361439045756183</v>
+        <v>0.007858495433981736</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.03555489421957688</v>
+        <v>-0.05011402445609783</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3397275029100116</v>
+        <v>0.3558919515678063</v>
       </c>
       <c r="V4" t="n">
-        <v>0.16749810999244</v>
+        <v>0.2001787527150109</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.0738312073248293</v>
+        <v>-0.05075924303697215</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05235966543866175</v>
+        <v>0.02572647090588362</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2679629918519674</v>
+        <v>0.2659693518774075</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01432824931299725</v>
+        <v>0.0109247476989908</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.08455944223776896</v>
+        <v>0.06978392713570854</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.01559027036108144</v>
+        <v>-0.02540890163560654</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.001228420913683655</v>
+        <v>0.03163596654386618</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01673833895335581</v>
+        <v>0.05590246360985444</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.03136082944331777</v>
+        <v>-0.02251343405373622</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.09584620738482955</v>
+        <v>0.1241576806307225</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.03351008604034416</v>
+        <v>0.1059957519830079</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.06086472345889384</v>
+        <v>0.05139946959787839</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.00310186840747363</v>
+        <v>0.002612554450217801</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.4169018276073104</v>
+        <v>-0.2796407665630662</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0205751863007452</v>
+        <v>0.07428413713654855</v>
       </c>
     </row>
     <row r="5">
@@ -967,112 +967,112 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9298526154104616</v>
+        <v>0.6410990123960496</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4713465253861016</v>
+        <v>0.02553581414325657</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5538272713090853</v>
+        <v>-0.3478680474721899</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1632632450529802</v>
+        <v>-0.2307834831339325</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04225716102864412</v>
+        <v>0.007962367849471397</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1186161544646179</v>
+        <v>-0.1230694202776811</v>
       </c>
       <c r="I5" t="n">
-        <v>0.155940623762495</v>
+        <v>0.278566234264937</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4108239472957892</v>
+        <v>-0.4991819327277309</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1510800283201133</v>
+        <v>0.2785856263425054</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02308703634814539</v>
+        <v>0.02072101088404354</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01539740558962236</v>
+        <v>0.07314192456769827</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.05981188724754899</v>
+        <v>-0.02206952827811311</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04597928791715167</v>
+        <v>-0.001053700214800859</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.000967875871503486</v>
+        <v>-0.001401605606422426</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.07916066864267457</v>
+        <v>0.02152856611426446</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04257809031236125</v>
+        <v>-0.05153444613778455</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1248165312661251</v>
+        <v>-0.1746565706262825</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.04406974427897711</v>
+        <v>-0.07947852591410366</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01648777795111181</v>
+        <v>0.09085841143364573</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0234436777747111</v>
+        <v>0.01899089196356785</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06429923319693279</v>
+        <v>-0.015687518750075</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.04898217992871971</v>
+        <v>0.001142884571538286</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.08877462709850839</v>
+        <v>-0.09146023784095136</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.01272417889671559</v>
+        <v>-0.001891687566750267</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.09301170004680019</v>
+        <v>-0.05023786495145981</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.05324267697070788</v>
+        <v>-0.02631188124752499</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1086919227676911</v>
+        <v>0.03766488665954664</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1616940227760911</v>
+        <v>-0.2302870651482606</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.09917540470161881</v>
+        <v>0.08727596510386042</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0004726098904395617</v>
+        <v>-0.0554747818991276</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.008379873519494077</v>
+        <v>-0.0556126384505538</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.05638419353677415</v>
+        <v>-0.06841918567674271</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01061937047748191</v>
+        <v>-0.02803000012000048</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6352607490429961</v>
+        <v>0.05332446929787719</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.4733448693794775</v>
+        <v>0.5040794883179532</v>
       </c>
     </row>
     <row r="6">
@@ -1082,112 +1082,112 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2951543326173305</v>
+        <v>0.1805350581402326</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3342012408049632</v>
+        <v>-0.2948527954111816</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00490129960519842</v>
+        <v>0.0572563570254281</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1632632450529802</v>
+        <v>-0.2307834831339325</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.04834128136512546</v>
+        <v>-0.03901359605438422</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.05899597998391994</v>
+        <v>-0.03914770859083436</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04636981747926992</v>
+        <v>-0.05511074844299377</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.03624772899091596</v>
+        <v>-0.05668361873447494</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01591609566438266</v>
+        <v>0.009321637286549146</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02236386545546182</v>
+        <v>0.007117180468721875</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.04350065400261601</v>
+        <v>-0.03450042600170401</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01701011604046416</v>
+        <v>0.01192411169644679</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006818139272557091</v>
+        <v>-0.003325069300277201</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.004936819747278989</v>
+        <v>-0.002661994647978592</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.05385487141948568</v>
+        <v>-0.0713376933507734</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07798245592982372</v>
+        <v>0.07848828195312781</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01302437209748839</v>
+        <v>0.003153612614450458</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.01092993171972688</v>
+        <v>-0.01942529370117481</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.06967045468181873</v>
+        <v>-0.06557853431413725</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03684321937287749</v>
+        <v>0.03911612446449786</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1032577250309001</v>
+        <v>0.09336392545570182</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04083184332737331</v>
+        <v>0.04664841059364237</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005526646106584427</v>
+        <v>0.003374221496885987</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.01248993795975184</v>
+        <v>0.008808419233676935</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.03762466249864999</v>
+        <v>-0.05389231156924628</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.05641395365581462</v>
+        <v>-0.08107779631118524</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.01892916371665487</v>
+        <v>0.004654770619082476</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9615837183348733</v>
+        <v>0.989935991743967</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.01791933567734271</v>
+        <v>0.008488641954567819</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01603936015744063</v>
+        <v>0.02474141096564386</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.02903531614126456</v>
+        <v>0.01600441601766407</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.04032140928563714</v>
+        <v>0.01823796095184381</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.04599560798243193</v>
+        <v>0.0499750159000636</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.002344233376933508</v>
+        <v>-0.005805431221724887</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1004475057900232</v>
+        <v>0.08772063888255553</v>
       </c>
     </row>
     <row r="7">
@@ -1197,19 +1197,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01905982023928096</v>
+        <v>0.006229848919395677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01033799335197341</v>
+        <v>0.01640329761319045</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0142248568994276</v>
+        <v>-0.01014061656246625</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04225716102864412</v>
+        <v>0.007962367849471397</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04834128136512546</v>
+        <v>-0.03901359605438422</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.196247536990148</v>
+        <v>-0.2250753963015852</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2117105108420434</v>
+        <v>-0.238628346513386</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1969063876255505</v>
+        <v>-0.2275808143232573</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1186161544646179</v>
+        <v>-0.1230694202776811</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05899597998391994</v>
+        <v>-0.03914770859083436</v>
       </c>
       <c r="G8" t="n">
         <v>-0.0228686354745419</v>
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008894243576974308</v>
+        <v>0.02697015588062352</v>
       </c>
       <c r="C9" t="n">
-        <v>0.410688394753579</v>
+        <v>0.4403663374653499</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01818487273949096</v>
+        <v>0.02059957039828159</v>
       </c>
       <c r="E9" t="n">
-        <v>0.155940623762495</v>
+        <v>0.278566234264937</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04636981747926992</v>
+        <v>-0.05511074844299377</v>
       </c>
       <c r="G9" t="n">
         <v>0.08910342841371366</v>
@@ -1542,19 +1542,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.4128979395917584</v>
+        <v>-0.4385348421393686</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05475861903447614</v>
+        <v>0.05312152448609794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.636064080256321</v>
+        <v>0.6418239112956452</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4108239472957892</v>
+        <v>-0.4991819327277309</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03624772899091596</v>
+        <v>-0.05668361873447494</v>
       </c>
       <c r="G10" t="n">
         <v>-0.01306565226260905</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1291450925803703</v>
+        <v>0.1687535070140281</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.03072137088548354</v>
+        <v>-0.04860201840807363</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02309193236772947</v>
+        <v>0.02253935415741663</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1510800283201133</v>
+        <v>0.2785856263425054</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01591609566438266</v>
+        <v>0.009321637286549146</v>
       </c>
       <c r="G11" t="n">
         <v>-0.1083313453253813</v>
@@ -1772,19 +1772,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01813975255901024</v>
+        <v>0.0218563114252457</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02390102360409442</v>
+        <v>-0.01835556142224569</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1873024132096529</v>
+        <v>0.2069156756627027</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02308703634814539</v>
+        <v>0.02072101088404354</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02236386545546182</v>
+        <v>0.007117180468721875</v>
       </c>
       <c r="G12" t="n">
         <v>0.04719705278821115</v>
@@ -1887,19 +1887,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01712234048936196</v>
+        <v>5.356821427285709e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04015542462169849</v>
+        <v>-0.05225080100320401</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02486793947175789</v>
+        <v>0.02646663386653546</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01539740558962236</v>
+        <v>0.07314192456769827</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04350065400261601</v>
+        <v>-0.03450042600170401</v>
       </c>
       <c r="G13" t="n">
         <v>0.01714826059304237</v>
@@ -2002,19 +2002,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08687909951639806</v>
+        <v>-0.07790104760419042</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08867689870759483</v>
+        <v>0.08445268981075925</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01159713438853755</v>
+        <v>-0.01931047724190897</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05981188724754899</v>
+        <v>-0.02206952827811311</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01701011604046416</v>
+        <v>0.01192411169644679</v>
       </c>
       <c r="G14" t="n">
         <v>-0.009399205596822387</v>
@@ -2117,19 +2117,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008296449185796743</v>
+        <v>-0.003926031704126817</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.08479675518702075</v>
+        <v>-0.0838253273013092</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2236425905703623</v>
+        <v>0.2677215508862035</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04597928791715167</v>
+        <v>-0.001053700214800859</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006818139272557091</v>
+        <v>-0.003325069300277201</v>
       </c>
       <c r="G15" t="n">
         <v>0.009240900963603855</v>
@@ -2232,19 +2232,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03210224040896163</v>
+        <v>-0.04108029232116928</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02867099468397874</v>
+        <v>0.03505358021432086</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02737815751263005</v>
+        <v>0.03383600734402938</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.000967875871503486</v>
+        <v>-0.001401605606422426</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.004936819747278989</v>
+        <v>-0.002661994647978592</v>
       </c>
       <c r="G16" t="n">
         <v>-0.06015153660614642</v>
@@ -2347,19 +2347,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0789248916995668</v>
+        <v>-0.05146551786207145</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1254587738350953</v>
+        <v>0.1181475765903064</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05117175668702675</v>
+        <v>0.03317744470977884</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.07916066864267457</v>
+        <v>0.02152856611426446</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.05385487141948568</v>
+        <v>-0.0713376933507734</v>
       </c>
       <c r="G17" t="n">
         <v>0.02646932187728751</v>
@@ -2462,19 +2462,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06023352093408374</v>
+        <v>0.0536185184740739</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.03199020796083184</v>
+        <v>-0.01468229872919492</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0210562442249769</v>
+        <v>-0.01128014112056448</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04257809031236125</v>
+        <v>-0.05153444613778455</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07798245592982372</v>
+        <v>0.07848828195312781</v>
       </c>
       <c r="G18" t="n">
         <v>-0.0740436561746247</v>
@@ -2577,19 +2577,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.04806796827187309</v>
+        <v>-0.01882442729770919</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2752075648302593</v>
+        <v>-0.2976750147000588</v>
       </c>
       <c r="D19" t="n">
-        <v>0.05361439045756183</v>
+        <v>0.007858495433981736</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1248165312661251</v>
+        <v>-0.1746565706262825</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01302437209748839</v>
+        <v>0.003153612614450458</v>
       </c>
       <c r="G19" t="n">
         <v>0.01246353785415142</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02601341605366421</v>
+        <v>-0.02999848799395198</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0342251929007716</v>
+        <v>-0.03318973275893104</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03555489421957688</v>
+        <v>-0.05011402445609783</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.04406974427897711</v>
+        <v>-0.07947852591410366</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01092993171972688</v>
+        <v>-0.01942529370117481</v>
       </c>
       <c r="G20" t="n">
         <v>-0.0212874131496526</v>
@@ -2807,19 +2807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1620326161304645</v>
+        <v>0.2021136404545618</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4632159648638595</v>
+        <v>0.5012014928059713</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3397275029100116</v>
+        <v>0.3558919515678063</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01648777795111181</v>
+        <v>0.09085841143364573</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.06967045468181873</v>
+        <v>-0.06557853431413725</v>
       </c>
       <c r="G21" t="n">
         <v>-0.03526689306757227</v>
@@ -2922,19 +2922,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02132245328981316</v>
+        <v>-0.02054715418861676</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06578819915279661</v>
+        <v>0.07263398653594615</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16749810999244</v>
+        <v>0.2001787527150109</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0234436777747111</v>
+        <v>0.01899089196356785</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03684321937287749</v>
+        <v>0.03911612446449786</v>
       </c>
       <c r="G22" t="n">
         <v>0.02758964635858543</v>
@@ -3037,19 +3037,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06570919083676335</v>
+        <v>0.05227048108192433</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06737854151416606</v>
+        <v>-0.05950103800415202</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0738312073248293</v>
+        <v>-0.05075924303697215</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06429923319693279</v>
+        <v>-0.015687518750075</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1032577250309001</v>
+        <v>0.09336392545570182</v>
       </c>
       <c r="G23" t="n">
         <v>0.06868702674810699</v>
@@ -3152,19 +3152,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.06557325429301718</v>
+        <v>-0.03909817239268957</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01915860463441854</v>
+        <v>-0.03357191028764115</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05235966543866175</v>
+        <v>0.02572647090588362</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.04898217992871971</v>
+        <v>0.001142884571538286</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04083184332737331</v>
+        <v>0.04664841059364237</v>
       </c>
       <c r="G24" t="n">
         <v>0.02887518750075</v>
@@ -3267,19 +3267,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.06957080628322514</v>
+        <v>-0.0806942747770991</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.05937729350917403</v>
+        <v>-0.06172229488917955</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2679629918519674</v>
+        <v>0.2659693518774075</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.08877462709850839</v>
+        <v>-0.09146023784095136</v>
       </c>
       <c r="F25" t="n">
-        <v>0.005526646106584427</v>
+        <v>0.003374221496885987</v>
       </c>
       <c r="G25" t="n">
         <v>0.01226644906579626</v>
@@ -3382,19 +3382,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.03572222288889156</v>
+        <v>-0.04372529490117961</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04251290605162421</v>
+        <v>0.04418676874707499</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01432824931299725</v>
+        <v>0.0109247476989908</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01272417889671559</v>
+        <v>-0.001891687566750267</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01248993795975184</v>
+        <v>0.008808419233676935</v>
       </c>
       <c r="G26" t="n">
         <v>0.01696845187380749</v>
@@ -3497,19 +3497,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.0723191052764211</v>
+        <v>-0.07290163560654242</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02759214236856947</v>
+        <v>0.02402822411289645</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08455944223776896</v>
+        <v>0.06978392713570854</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.09301170004680019</v>
+        <v>-0.05023786495145981</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.03762466249864999</v>
+        <v>-0.05389231156924628</v>
       </c>
       <c r="G27" t="n">
         <v>-0.004993555974223897</v>
@@ -3612,19 +3612,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0477689270757083</v>
+        <v>-0.03013663254653019</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02705665222660891</v>
+        <v>0.01291944367777471</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01559027036108144</v>
+        <v>-0.02540890163560654</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.05324267697070788</v>
+        <v>-0.02631188124752499</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.05641395365581462</v>
+        <v>-0.08107779631118524</v>
       </c>
       <c r="G28" t="n">
         <v>0.03612811251245005</v>
@@ -3727,19 +3727,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1032781731126925</v>
+        <v>0.08782057528230112</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0138373993495974</v>
+        <v>0.03095292381169525</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001228420913683655</v>
+        <v>0.03163596654386618</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1086919227676911</v>
+        <v>0.03766488665954664</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.01892916371665487</v>
+        <v>0.004654770619082476</v>
       </c>
       <c r="G29" t="n">
         <v>0.05674179496717987</v>
@@ -3842,19 +3842,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3013429973719895</v>
+        <v>0.1926756507026028</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3407980991923968</v>
+        <v>-0.2916204624818499</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01673833895335581</v>
+        <v>0.05590246360985444</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1616940227760911</v>
+        <v>-0.2302870651482606</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9615837183348733</v>
+        <v>0.989935991743967</v>
       </c>
       <c r="G30" t="n">
         <v>-0.03504887619550478</v>
@@ -3957,19 +3957,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.08594232776931107</v>
+        <v>0.1069668918675675</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.01039693758775035</v>
+        <v>-0.00299252397009588</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03136082944331777</v>
+        <v>-0.02251343405373622</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09917540470161881</v>
+        <v>0.08727596510386042</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01791933567734271</v>
+        <v>0.008488641954567819</v>
       </c>
       <c r="G31" t="n">
         <v>0.04266468265873063</v>
@@ -4072,19 +4072,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.1123168012672051</v>
+        <v>-0.115059628238513</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05274270697082788</v>
+        <v>0.0535249180996724</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09584620738482955</v>
+        <v>0.1241576806307225</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0004726098904395617</v>
+        <v>-0.0554747818991276</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01603936015744063</v>
+        <v>0.02474141096564386</v>
       </c>
       <c r="G32" t="n">
         <v>0.02212693650774603</v>
@@ -4187,19 +4187,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.063999903999616</v>
+        <v>-0.1306914667658671</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.02040382561530246</v>
+        <v>-0.01598233592934372</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03351008604034416</v>
+        <v>0.1059957519830079</v>
       </c>
       <c r="E33" t="n">
-        <v>0.008379873519494077</v>
+        <v>-0.0556126384505538</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02903531614126456</v>
+        <v>0.01600441601766407</v>
       </c>
       <c r="G33" t="n">
         <v>-0.001653510614042456</v>
@@ -4302,19 +4302,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.01817133668534674</v>
+        <v>-0.01157822231288925</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01395720782883132</v>
+        <v>0.01317931671726687</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06086472345889384</v>
+        <v>0.05139946959787839</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.05638419353677415</v>
+        <v>-0.06841918567674271</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04032140928563714</v>
+        <v>0.01823796095184381</v>
       </c>
       <c r="G34" t="n">
         <v>0.004860499441997768</v>
@@ -4417,19 +4417,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.01078429913719655</v>
+        <v>-0.02099931599726399</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02110050040200161</v>
+        <v>0.02548234192936772</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.00310186840747363</v>
+        <v>0.002612554450217801</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01061937047748191</v>
+        <v>-0.02803000012000048</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04599560798243193</v>
+        <v>0.0499750159000636</v>
       </c>
       <c r="G35" t="n">
         <v>0.01461692246768987</v>
@@ -4532,19 +4532,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.633438181752727</v>
+        <v>0.5568619394477577</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.4896403585614342</v>
+        <v>-0.420935667742671</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.4169018276073104</v>
+        <v>-0.2796407665630662</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6352607490429961</v>
+        <v>0.05332446929787719</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002344233376933508</v>
+        <v>-0.005805431221724887</v>
       </c>
       <c r="G36" t="n">
         <v>0.04644709778839115</v>
@@ -4647,19 +4647,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4392991011964048</v>
+        <v>0.4853875415501662</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2931129804519218</v>
+        <v>-0.3020755763023052</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0205751863007452</v>
+        <v>0.07428413713654855</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4733448693794775</v>
+        <v>0.5040794883179532</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1004475057900232</v>
+        <v>0.08772063888255553</v>
       </c>
       <c r="G37" t="n">
         <v>0.02651617006468026</v>
